--- a/media/planilhas/Planilha de Sepultados.xlsx
+++ b/media/planilhas/Planilha de Sepultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogerio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogerio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57243A07-E018-4259-BF77-993F825E7B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF54A7-5D7E-4603-8C5F-DA58B0CFCBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="46">
   <si>
     <t>nome</t>
   </si>
@@ -76,7 +76,88 @@
     <t>M</t>
   </si>
   <si>
-    <t>Teste</t>
+    <t>Joao teste</t>
+  </si>
+  <si>
+    <t>015454545-01</t>
+  </si>
+  <si>
+    <t>015454545-02</t>
+  </si>
+  <si>
+    <t>015454545-03</t>
+  </si>
+  <si>
+    <t>015454545-04</t>
+  </si>
+  <si>
+    <t>015454545-05</t>
+  </si>
+  <si>
+    <t>015454545-06</t>
+  </si>
+  <si>
+    <t>015454545-07</t>
+  </si>
+  <si>
+    <t>015454545-08</t>
+  </si>
+  <si>
+    <t>015454545-09</t>
+  </si>
+  <si>
+    <t>015454545-10</t>
+  </si>
+  <si>
+    <t>015454545-11</t>
+  </si>
+  <si>
+    <t>015454545-12</t>
+  </si>
+  <si>
+    <t>015454545-13</t>
+  </si>
+  <si>
+    <t>015454545-14</t>
+  </si>
+  <si>
+    <t>015454545-15</t>
+  </si>
+  <si>
+    <t>015454545-16</t>
+  </si>
+  <si>
+    <t>015454545-17</t>
+  </si>
+  <si>
+    <t>015454545-18</t>
+  </si>
+  <si>
+    <t>015454545-19</t>
+  </si>
+  <si>
+    <t>015454545-20</t>
+  </si>
+  <si>
+    <t>015454545-21</t>
+  </si>
+  <si>
+    <t>015454545-22</t>
+  </si>
+  <si>
+    <t>015454545-23</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T 33</t>
+  </si>
+  <si>
+    <t>quadra</t>
+  </si>
+  <si>
+    <t>Quadra 30</t>
   </si>
 </sst>
 </file>
@@ -108,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,16 +212,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L3" sqref="L3:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,9 +593,10 @@
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +630,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -567,7 +666,884 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16753</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32833</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32833</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16754</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>32834</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2">
+        <v>32834</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16755</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>32835</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>32835</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16756</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32836</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>32836</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16757</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32837</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32837</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16758</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2">
+        <v>32838</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>32838</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16759</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>32839</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2">
+        <v>32839</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16760</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32840</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <v>32840</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16761</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>32841</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2">
+        <v>32841</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16762</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>32842</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2">
+        <v>32842</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16763</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32843</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2">
+        <v>32843</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16764</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>32844</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2">
+        <v>32844</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16765</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>32845</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2">
+        <v>32845</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16766</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>32846</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2">
+        <v>32846</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16767</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
+        <v>32847</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2">
+        <v>32847</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16768</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>32848</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2">
+        <v>32848</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16769</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
+        <v>32849</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2">
+        <v>32849</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16770</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2">
+        <v>32850</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2">
+        <v>32850</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16771</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2">
+        <v>32851</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2">
+        <v>32851</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2">
+        <v>16772</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2">
+        <v>32852</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2">
+        <v>32852</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16773</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2">
+        <v>32853</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2">
+        <v>32853</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2">
+        <v>16774</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2">
+        <v>32854</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2">
+        <v>32854</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2">
+        <v>16775</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2">
+        <v>32855</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2">
+        <v>32855</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
